--- a/ParamterSetting.xlsx
+++ b/ParamterSetting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/jzl0196_auburn_edu/Documents/Doctor work/Summer2020/Github/SimioWarehouseSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="8_{860AB86E-139C-49E3-AFE2-A647433AD49B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{19823C13-EE69-43B5-93F7-C5938322DB57}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{860AB86E-139C-49E3-AFE2-A647433AD49B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90FA2647-22A4-48AF-A9EC-9132DFE171BB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{F7131554-C852-4CA0-91AF-857AFFEE7A75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{F7131554-C852-4CA0-91AF-857AFFEE7A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -61,12 +61,6 @@
     <t>BR_corner</t>
   </si>
   <si>
-    <t>TL_corner</t>
-  </si>
-  <si>
-    <t>TR_corner</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>QuantityDistribution: The distribution used to generate the qauntity of skus per order line. If 'Uniform', add_value1 is the lower bound and add_value2 is the upper bound</t>
   </si>
   <si>
-    <t>BL(BR,TL,TR)_corner: The x-z coordinate values for corners. value is for x-coordinate and add_value1 is for z-coordinate</t>
-  </si>
-  <si>
     <t>Parameter Setting explanation</t>
   </si>
   <si>
@@ -128,6 +119,15 @@
   </si>
   <si>
     <t>The number of rows in this worksheet should match the number of Skus. The sum of the rows should equal to 1</t>
+  </si>
+  <si>
+    <t>UL_corner</t>
+  </si>
+  <si>
+    <t>UR_corner</t>
+  </si>
+  <si>
+    <t>BL(BR,UL,UR)_corner: The x-z coordinate values for corners. value is for x-coordinate and add_value1 is for z-coordinate</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDBE60E-D5DD-46C3-8DD8-2866483AEE7A}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -590,7 +590,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -604,7 +604,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -642,7 +642,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -656,7 +656,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -694,7 +694,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -744,7 +744,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -774,7 +774,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -832,7 +832,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -904,7 +904,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -934,16 +934,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:L17"/>
+    <mergeCell ref="A18:L22"/>
+    <mergeCell ref="A23:L24"/>
+    <mergeCell ref="Q6:Z7"/>
+    <mergeCell ref="Q8:Z11"/>
     <mergeCell ref="A1:L4"/>
     <mergeCell ref="A6:L7"/>
     <mergeCell ref="A8:L9"/>
     <mergeCell ref="A10:L11"/>
     <mergeCell ref="A12:L13"/>
-    <mergeCell ref="A14:L17"/>
-    <mergeCell ref="A18:L22"/>
-    <mergeCell ref="A23:L24"/>
-    <mergeCell ref="Q6:Z7"/>
-    <mergeCell ref="Q8:Z11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -955,7 +955,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,25 +980,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1078,12 +1078,12 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -1092,12 +1092,12 @@
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>100</v>
@@ -1106,7 +1106,7 @@
         <v>100</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C926570-B731-4464-BE16-F3949EEF2C2A}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1130,7 +1130,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,6 +1393,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C04F955E6BE26B49A9810DDAF3424474" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="19fc2a4b45b4492516aeaf2dbdfd48d9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fa1e96c-ecbd-423e-879e-3cd99d3f12bd" xmlns:ns4="07aab74c-7203-447e-9caf-aec3d2929467" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b585d0475fc2395d5a9ddbd71c441b39" ns3:_="" ns4:_="">
     <xsd:import namespace="3fa1e96c-ecbd-423e-879e-3cd99d3f12bd"/>
@@ -1609,12 +1615,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1625,6 +1625,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{712EB154-4386-477F-AFC9-37872070BC35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAEC05C6-728F-4B78-935F-6A2B2D85BDB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1643,15 +1652,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{712EB154-4386-477F-AFC9-37872070BC35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF26AFF-8E76-4BF2-AC4B-ACD682F5EA80}">
   <ds:schemaRefs>

--- a/ParamterSetting.xlsx
+++ b/ParamterSetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/jzl0196_auburn_edu/Documents/Doctor work/Summer2020/Github/SimioWarehouseSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{860AB86E-139C-49E3-AFE2-A647433AD49B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90FA2647-22A4-48AF-A9EC-9132DFE171BB}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{860AB86E-139C-49E3-AFE2-A647433AD49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B0D6361-95B0-4044-B0CC-D706B7C9D7B3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{F7131554-C852-4CA0-91AF-857AFFEE7A75}"/>
+    <workbookView xWindow="24645" yWindow="1020" windowWidth="21750" windowHeight="17955" activeTab="1" xr2:uid="{F7131554-C852-4CA0-91AF-857AFFEE7A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -49,9 +49,6 @@
     <t>SkuNo</t>
   </si>
   <si>
-    <t>LocationNo</t>
-  </si>
-  <si>
     <t>Uniform</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>SkuNo: The number of Skus wanted to be generated</t>
   </si>
   <si>
-    <t>LocationNo:  The number of Locations wanted to be generated</t>
-  </si>
-  <si>
     <t>LineDistribution: The distribution used to generate lines per order. If 'Uniform', add_value1 is the lower bound and add_value2 is the upper bound</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>SKU Weights explanation</t>
   </si>
   <si>
-    <t>This Excel file is used to provide parameters for the file 'Warehouse Data Generator.ipynb'.  The parameters are stored in the "Parameter Setting" worksheet. The "SKU Weights" worksheet is used to provide Sku weighting.</t>
-  </si>
-  <si>
     <t>The number of rows in this worksheet should match the number of Skus. The sum of the rows should equal to 1</t>
   </si>
   <si>
@@ -128,13 +119,31 @@
   </si>
   <si>
     <t>BL(BR,UL,UR)_corner: The x-z coordinate values for corners. value is for x-coordinate and add_value1 is for z-coordinate</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>PickerNum</t>
+  </si>
+  <si>
+    <t>TransporterNum</t>
+  </si>
+  <si>
+    <t>PickerNum: Number of Pickers in System</t>
+  </si>
+  <si>
+    <t>TransporterNum: Number of Transporters in System</t>
+  </si>
+  <si>
+    <t>This Excel file is used to provide parameters for the file 'Warehouse Data Preparation.ipynb'.  The parameters are stored in the "Parameter Setting" worksheet. The "SKU Weights" worksheet is used to provide Sku weighting.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +153,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +217,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -519,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDBE60E-D5DD-46C3-8DD8-2866483AEE7A}">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,419 +550,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="Q8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="Q8" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A14:L17"/>
-    <mergeCell ref="A18:L22"/>
-    <mergeCell ref="A23:L24"/>
+  <mergeCells count="11">
     <mergeCell ref="Q6:Z7"/>
     <mergeCell ref="Q8:Z11"/>
+    <mergeCell ref="A23:L24"/>
+    <mergeCell ref="A25:L26"/>
     <mergeCell ref="A1:L4"/>
     <mergeCell ref="A6:L7"/>
     <mergeCell ref="A8:L9"/>
     <mergeCell ref="A10:L11"/>
-    <mergeCell ref="A12:L13"/>
+    <mergeCell ref="A12:L15"/>
+    <mergeCell ref="A16:L20"/>
+    <mergeCell ref="A21:L22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -952,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B024247D-A3F9-42D1-A933-F30ECCEC9B5C}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,10 +1019,11 @@
     <col min="7" max="7" width="15" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="47" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="16.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -980,133 +1031,153 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
       <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>100</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1117,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C926570-B731-4464-BE16-F3949EEF2C2A}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,261 +1201,111 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E2" s="1">
         <f>1/'Parameter Setting'!B3</f>
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/ParamterSetting.xlsx
+++ b/ParamterSetting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/jzl0196_auburn_edu/Documents/Doctor work/Summer2020/Github/SimioWarehouseSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{860AB86E-139C-49E3-AFE2-A647433AD49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B0D6361-95B0-4044-B0CC-D706B7C9D7B3}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{860AB86E-139C-49E3-AFE2-A647433AD49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C9C642D-1D8A-4B87-8531-0F39402D4B5F}"/>
   <bookViews>
-    <workbookView xWindow="24645" yWindow="1020" windowWidth="21750" windowHeight="17955" activeTab="1" xr2:uid="{F7131554-C852-4CA0-91AF-857AFFEE7A75}"/>
+    <workbookView xWindow="26910" yWindow="1965" windowWidth="21750" windowHeight="17955" activeTab="1" xr2:uid="{F7131554-C852-4CA0-91AF-857AFFEE7A75}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="2" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1314,9 +1314,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1537,19 +1540,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{712EB154-4386-477F-AFC9-37872070BC35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF26AFF-8E76-4BF2-AC4B-ACD682F5EA80}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1574,9 +1573,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DF26AFF-8E76-4BF2-AC4B-ACD682F5EA80}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{712EB154-4386-477F-AFC9-37872070BC35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>